--- a/Builder/Builder/Excel/TestBook.xlsx
+++ b/Builder/Builder/Excel/TestBook.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takun\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Minecraft_Automation\Builder\Builder\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{455FF7FF-1345-4E46-9484-F11ABECF0D2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA599AC-F017-42E5-9567-FCBED33793F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11445" yWindow="3075" windowWidth="7080" windowHeight="11310" xr2:uid="{3A7E3C11-F29E-4873-B66C-1146796A4502}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3A7E3C11-F29E-4873-B66C-1146796A4502}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,18 +29,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>ほげふが王国</t>
-    <rPh sb="4" eb="6">
-      <t>オウコク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -83,8 +72,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -401,18 +393,1007 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007CC9E5-BE2F-41EA-A4F4-8FFEC028171F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A1" s="1">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F433716C-7215-4D80-B9B6-A03F76485ABE}">
+  <dimension ref="A1:T20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Builder/Builder/Excel/TestBook.xlsx
+++ b/Builder/Builder/Excel/TestBook.xlsx
@@ -2,19 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Minecraft_Automation\Builder\Builder\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA599AC-F017-42E5-9567-FCBED33793F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CDABF1-98F6-4EA3-98D8-1C9B52205079}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3A7E3C11-F29E-4873-B66C-1146796A4502}"/>
+    <workbookView xWindow="10785" yWindow="2085" windowWidth="14895" windowHeight="11310" xr2:uid="{3A7E3C11-F29E-4873-B66C-1146796A4502}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="2" sheetId="8" r:id="rId2"/>
+    <sheet name="3" sheetId="10" r:id="rId3"/>
+    <sheet name="4" sheetId="11" r:id="rId4"/>
+    <sheet name="5" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -393,34 +396,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007CC9E5-BE2F-41EA-A4F4-8FFEC028171F}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="F1" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1">
+        <v>1</v>
+      </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -435,24 +447,32 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1">
         <v>3</v>
       </c>
       <c r="E2" s="1">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -467,24 +487,32 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -499,24 +527,32 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -531,24 +567,32 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -562,15 +606,33 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -584,15 +646,33 @@
       <c r="T6" s="1"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -606,15 +686,33 @@
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -628,15 +726,33 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -650,15 +766,33 @@
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -898,33 +1032,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F433716C-7215-4D80-B9B6-A03F76485ABE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25E6FF0-7D9F-4F1D-AF17-5B1551BBA854}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:H10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="C1" s="1">
-        <v>3</v>
-      </c>
       <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1">
         <v>4</v>
       </c>
-      <c r="E1" s="1">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -942,21 +1087,29 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -971,24 +1124,32 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -1003,24 +1164,32 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -1035,24 +1204,32 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1066,15 +1243,33 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -1088,15 +1283,33 @@
       <c r="T6" s="1"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -1110,15 +1323,33 @@
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -1132,15 +1363,33 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -1154,15 +1403,33 @@
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="A10" s="1">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>6</v>
+      </c>
+      <c r="G10" s="1">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1">
+        <v>6</v>
+      </c>
+      <c r="I10" s="1">
+        <v>4</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1399,4 +1666,1915 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47818F58-DDD8-4ED2-B266-7FF5B858FBEE}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:T20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A1" s="1">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>6</v>
+      </c>
+      <c r="G10" s="1">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1">
+        <v>6</v>
+      </c>
+      <c r="I10" s="1">
+        <v>4</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F37382F7-F4FB-49F0-9993-1EE0800696EF}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:T20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A1" s="1">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>4</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CA1399E-EDC0-4F2A-AF89-DB00E8C93944}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:T20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A1" s="1">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>4</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Builder/Builder/Excel/TestBook.xlsx
+++ b/Builder/Builder/Excel/TestBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Minecraft_Automation\Builder\Builder\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CDABF1-98F6-4EA3-98D8-1C9B52205079}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3DA409-D5B4-470F-9BA7-DDDF8F90A6BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10785" yWindow="2085" windowWidth="14895" windowHeight="11310" xr2:uid="{3A7E3C11-F29E-4873-B66C-1146796A4502}"/>
+    <workbookView xWindow="5655" yWindow="1875" windowWidth="14895" windowHeight="11310" activeTab="4" xr2:uid="{3A7E3C11-F29E-4873-B66C-1146796A4502}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -399,7 +399,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -2947,8 +2947,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2998,25 +2998,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -3038,25 +3038,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -3078,25 +3078,25 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -3118,25 +3118,25 @@
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
@@ -3158,25 +3158,25 @@
         <v>1</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
@@ -3198,25 +3198,25 @@
         <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
@@ -3238,25 +3238,25 @@
         <v>1</v>
       </c>
       <c r="B8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -3278,25 +3278,25 @@
         <v>1</v>
       </c>
       <c r="B9" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>

--- a/Builder/Builder/Excel/TestBook.xlsx
+++ b/Builder/Builder/Excel/TestBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Minecraft_Automation\Builder\Builder\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3DA409-D5B4-470F-9BA7-DDDF8F90A6BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C84A11-CDA8-4469-9678-ECC16863E247}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5655" yWindow="1875" windowWidth="14895" windowHeight="11310" activeTab="4" xr2:uid="{3A7E3C11-F29E-4873-B66C-1146796A4502}"/>
   </bookViews>
@@ -400,7 +400,7 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1037,7 +1037,7 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:H10"/>
+      <selection sqref="A1:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1059,18 +1059,20 @@
         <v>1</v>
       </c>
       <c r="F1" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1" s="1">
         <v>2</v>
       </c>
       <c r="H1" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1">
         <v>4</v>
       </c>
-      <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1108,9 +1110,11 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -1148,9 +1152,11 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1188,9 +1194,11 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2</v>
+      </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -1228,9 +1236,11 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>2</v>
-      </c>
-      <c r="J5" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -1268,9 +1278,11 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>2</v>
-      </c>
-      <c r="J6" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -1308,9 +1320,11 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -1348,9 +1362,11 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -1388,9 +1404,11 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -1419,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
         <v>6</v>
@@ -1428,9 +1446,11 @@
         <v>6</v>
       </c>
       <c r="I10" s="1">
+        <v>6</v>
+      </c>
+      <c r="J10" s="1">
         <v>4</v>
       </c>
-      <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -1674,7 +1694,7 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection sqref="A1:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1696,18 +1716,20 @@
         <v>1</v>
       </c>
       <c r="F1" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1" s="1">
         <v>2</v>
       </c>
       <c r="H1" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1">
         <v>4</v>
       </c>
-      <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1745,9 +1767,11 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -1785,9 +1809,11 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1825,9 +1851,11 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2</v>
+      </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -1865,9 +1893,11 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>2</v>
-      </c>
-      <c r="J5" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -1905,9 +1935,11 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>2</v>
-      </c>
-      <c r="J6" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -1945,9 +1977,11 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -1985,9 +2019,11 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -2025,9 +2061,11 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -2056,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
         <v>6</v>
@@ -2065,9 +2103,11 @@
         <v>6</v>
       </c>
       <c r="I10" s="1">
+        <v>6</v>
+      </c>
+      <c r="J10" s="1">
         <v>4</v>
       </c>
-      <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -2311,7 +2351,7 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2342,9 +2382,11 @@
         <v>1</v>
       </c>
       <c r="I1" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1">
         <v>4</v>
       </c>
-      <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -2382,9 +2424,11 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -2422,9 +2466,11 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -2462,9 +2508,11 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -2502,9 +2550,11 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -2542,9 +2592,11 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -2582,9 +2634,11 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -2622,9 +2676,11 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -2662,9 +2718,11 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -2702,9 +2760,11 @@
         <v>1</v>
       </c>
       <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
         <v>4</v>
       </c>
-      <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -2948,7 +3008,7 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2979,9 +3039,11 @@
         <v>1</v>
       </c>
       <c r="I1" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1">
         <v>4</v>
       </c>
-      <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -3019,9 +3081,11 @@
         <v>2</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -3059,9 +3123,11 @@
         <v>2</v>
       </c>
       <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -3099,9 +3165,11 @@
         <v>2</v>
       </c>
       <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -3139,9 +3207,11 @@
         <v>2</v>
       </c>
       <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -3179,9 +3249,11 @@
         <v>2</v>
       </c>
       <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -3219,9 +3291,11 @@
         <v>2</v>
       </c>
       <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -3259,9 +3333,11 @@
         <v>2</v>
       </c>
       <c r="I8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -3299,9 +3375,11 @@
         <v>2</v>
       </c>
       <c r="I9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -3339,9 +3417,11 @@
         <v>1</v>
       </c>
       <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
         <v>4</v>
       </c>
-      <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
